--- a/VoiDo - Todos Export.xlsx
+++ b/VoiDo - Todos Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,18 @@
     <t>Subtask 4</t>
   </si>
   <si>
+    <t>Subtask 5</t>
+  </si>
+  <si>
+    <t>Subtask 6</t>
+  </si>
+  <si>
+    <t>Subtask 7</t>
+  </si>
+  <si>
+    <t>Subtask 8</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
@@ -73,7 +85,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Pending</t>
   </si>
   <si>
     <t>Marco</t>
@@ -91,7 +103,67 @@
     <t>This is flag $</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>merda</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>RustySEO</t>
+  </si>
+  <si>
+    <t>This is the todo text</t>
+  </si>
+  <si>
+    <t>No description provided</t>
+  </si>
+  <si>
+    <t>20=10-25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>This is an extra subtask</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Improve crawl speed</t>
+  </si>
+  <si>
+    <t>17-07-25</t>
+  </si>
+  <si>
+    <t>Check links function</t>
+  </si>
+  <si>
+    <t>Main domain crawler</t>
+  </si>
+  <si>
+    <t>helper functions inside domain crawler</t>
   </si>
 </sst>
 </file>
@@ -423,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,128 +541,158 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:17">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/VoiDo - Todos Export.xlsx
+++ b/VoiDo - Todos Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -43,127 +43,84 @@
     <t>OWNER</t>
   </si>
   <si>
+    <t>NOTES</t>
+  </si>
+  <si>
     <t>Subtask 1</t>
   </si>
   <si>
-    <t>Subtask 2</t>
-  </si>
-  <si>
-    <t>Subtask 3</t>
-  </si>
-  <si>
-    <t>Subtask 4</t>
-  </si>
-  <si>
-    <t>Subtask 5</t>
-  </si>
-  <si>
-    <t>Subtask 6</t>
-  </si>
-  <si>
-    <t>Subtask 7</t>
-  </si>
-  <si>
-    <t>Subtask 8</t>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>This is a todo</t>
+  </si>
+  <si>
+    <t>No description provided</t>
+  </si>
+  <si>
+    <t>02-08-25</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>efwefwefwefewfwefwefwefjhweflkj wefwef wef wef wwelkhfwef wefwe lwekjfh weefwewe ejkfhwef wefwef f wefweff dfs s sdfsdf sdfssdf dsfsdf sd sdfsd kjjhk kljhf kjhkjh jkhkjhsd kjhksd  asdjashdlashfsdfsdfsdf dsfsd sdf sdf ssdf sdf sdf sdfsdfsdf sdf sdfsdf ssdf sdfsdf sdfsdf sdf qewcwec
+wecwec
+wcwecwec fwefwef
+fwef
+wefwefwefwef
+wefwefwef
+fwefwef</t>
+  </si>
+  <si>
+    <t>hello there</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test todo with notes</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dewdfweffewefjkwehf wefjkhwf efjkwhfwf jwfjkwfkjwe ef wkjfhwe wejhfwefwefwe wefwefwefjwef f wefw efrewgf
+regerg
+Need to do this that and the other.
+I don't know what this is!
+This is shit
+What if it has loads of stuff here?
+what happens then?
+I don't know what this is
+maybe it is something strange
+</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>Voido</t>
-  </si>
-  <si>
-    <t>This is the topic line</t>
-  </si>
-  <si>
-    <t>This is the longer description</t>
-  </si>
-  <si>
-    <t>15-07-25</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>this is flag 1</t>
-  </si>
-  <si>
-    <t>This is flag 2</t>
-  </si>
-  <si>
-    <t>This is flag 3</t>
-  </si>
-  <si>
-    <t>This is flag $</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>merda</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>RustySEO</t>
-  </si>
-  <si>
-    <t>This is the todo text</t>
-  </si>
-  <si>
-    <t>No description provided</t>
-  </si>
-  <si>
-    <t>20=10-25</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>This is an extra subtask</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Improve crawl speed</t>
-  </si>
-  <si>
-    <t>17-07-25</t>
-  </si>
-  <si>
-    <t>Check links function</t>
-  </si>
-  <si>
-    <t>Main domain crawler</t>
-  </si>
-  <si>
-    <t>helper functions inside domain crawler</t>
+    <t>Test long notes</t>
+  </si>
+  <si>
+    <t>This is a very long description with multiple lines to test the scrolling functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# this is a markdown thing.
+## This is also a markdow heading</t>
   </si>
 </sst>
 </file>
@@ -495,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,96 +492,63 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -633,66 +557,39 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
